--- a/Proyecto BD Casos_de_prueba.xlsx
+++ b/Proyecto BD Casos_de_prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Proyecto_IMDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geral\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C92C544-1D41-4AA4-AD2E-AF9EF5A3968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C12F164-F936-4CD1-97B9-793FC504BC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,9 +456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -877,7 +874,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -995,16 +992,16 @@
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="5">
         <f>+COUNTIF(D3:D59,F7)</f>
-        <v>47</v>
-      </c>
-      <c r="H7" s="9">
-        <f>+G7/57</f>
-        <v>0.82456140350877194</v>
+        <v>51</v>
+      </c>
+      <c r="H7" s="8">
+        <f>+G7/60</f>
+        <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1020,15 +1017,15 @@
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="5">
         <f>+COUNTIF(D3:D59,F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="9">
-        <f t="shared" ref="H8:H9" si="0">+G8/57</f>
+      <c r="H8" s="8">
+        <f t="shared" ref="H8:H9" si="0">+G8/60</f>
         <v>0</v>
       </c>
     </row>
@@ -1045,21 +1042,21 @@
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5">
         <f>+COUNTIF(D3:D59,F9)</f>
-        <v>10</v>
-      </c>
-      <c r="H9" s="9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>0.17543859649122806</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>25</v>
@@ -1073,7 +1070,7 @@
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
       <c r="A11" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>27</v>
@@ -1087,7 +1084,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>29</v>
@@ -1101,7 +1098,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>31</v>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>32</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>33</v>
@@ -1143,7 +1140,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>34</v>
@@ -1157,7 +1154,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>35</v>
@@ -1165,13 +1162,13 @@
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>36</v>
@@ -1179,13 +1176,13 @@
       <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>37</v>
@@ -1193,13 +1190,13 @@
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>38</v>
@@ -1207,14 +1204,14 @@
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>39</v>
@@ -1222,13 +1219,13 @@
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>40</v>
@@ -1236,13 +1233,13 @@
       <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>41</v>
@@ -1250,13 +1247,13 @@
       <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>42</v>
@@ -1264,13 +1261,13 @@
       <c r="C24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>43</v>
@@ -1278,13 +1275,13 @@
       <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>44</v>
@@ -1292,13 +1289,13 @@
       <c r="C26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>45</v>
@@ -1306,13 +1303,13 @@
       <c r="C27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>47</v>
@@ -1320,13 +1317,13 @@
       <c r="C28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>49</v>
@@ -1334,13 +1331,13 @@
       <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>50</v>
@@ -1348,13 +1345,13 @@
       <c r="C30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>51</v>
@@ -1362,13 +1359,13 @@
       <c r="C31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>53</v>
@@ -1376,13 +1373,13 @@
       <c r="C32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>55</v>
@@ -1390,13 +1387,13 @@
       <c r="C33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>57</v>
@@ -1404,13 +1401,13 @@
       <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>59</v>
@@ -1418,13 +1415,13 @@
       <c r="C35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>61</v>
@@ -1432,13 +1429,13 @@
       <c r="C36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>63</v>
@@ -1446,13 +1443,13 @@
       <c r="C37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>64</v>
@@ -1460,13 +1457,13 @@
       <c r="C38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>65</v>
@@ -1474,13 +1471,13 @@
       <c r="C39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>67</v>
@@ -1488,13 +1485,13 @@
       <c r="C40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>69</v>
@@ -1502,13 +1499,13 @@
       <c r="C41" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>71</v>
@@ -1516,27 +1513,27 @@
       <c r="C42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="5">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>75</v>
@@ -1544,13 +1541,13 @@
       <c r="C44" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="5">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>77</v>
@@ -1558,13 +1555,13 @@
       <c r="C45" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>24</v>
+      <c r="D45" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>79</v>
@@ -1578,7 +1575,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>81</v>
@@ -1592,7 +1589,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>83</v>
@@ -1606,7 +1603,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>85</v>
@@ -1614,13 +1611,13 @@
       <c r="C49" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>24</v>
+      <c r="D49" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>87</v>
@@ -1634,7 +1631,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>89</v>
@@ -1648,7 +1645,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>91</v>
@@ -1662,7 +1659,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>93</v>
@@ -1676,7 +1673,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>95</v>
@@ -1690,7 +1687,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>97</v>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>99</v>
@@ -1712,13 +1709,13 @@
       <c r="C56" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>24</v>
+      <c r="D56" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>101</v>
@@ -1726,13 +1723,13 @@
       <c r="C57" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>24</v>
+      <c r="D57" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>103</v>
@@ -1746,7 +1743,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>105</v>
@@ -1759,11 +1756,11 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="A60" s="11"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="12"/>
+      <c r="A61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Proyecto BD Casos_de_prueba.xlsx
+++ b/Proyecto BD Casos_de_prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geral\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Proyecto_IMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C12F164-F936-4CD1-97B9-793FC504BC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114567A7-5CD0-4DE6-B9A8-5430DABCBD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,9 +446,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -466,6 +463,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -888,879 +888,879 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
         <f>+COUNTIF(D3:D59,F7)</f>
         <v>51</v>
       </c>
-      <c r="H7" s="8">
-        <f>+G7/60</f>
-        <v>0.85</v>
+      <c r="H7" s="7">
+        <f>+G7/57</f>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f>+COUNTIF(D3:D59,F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="8">
-        <f t="shared" ref="H8:H9" si="0">+G8/60</f>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:H9" si="0">+G8/57</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f>+COUNTIF(D3:D59,F9)</f>
         <v>6</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="B28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="B30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5">
-        <v>19</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="B39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="B40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5">
-        <v>22</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="B41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="B42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5">
+      <c r="B43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5">
-        <v>25</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5">
-        <v>26</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5">
-        <v>28</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5">
-        <v>30</v>
-      </c>
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5">
-        <v>31</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="B51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5">
-        <v>32</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="B52" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="B53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="5">
-        <v>33</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="B54" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="B55" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5">
-        <v>34</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="B56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="B57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5">
-        <v>35</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="B58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5">
-        <v>36</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5">
-        <v>37</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5">
-        <v>38</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5">
-        <v>39</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5">
-        <v>40</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5">
-        <v>41</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5">
-        <v>42</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5">
-        <v>43</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5">
-        <v>44</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="5">
-        <v>45</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="5">
-        <v>46</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5">
-        <v>47</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5">
-        <v>48</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5">
-        <v>49</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5">
-        <v>50</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5">
-        <v>51</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5">
-        <v>52</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5">
-        <v>53</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="5">
-        <v>54</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="5">
-        <v>55</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="5">
-        <v>56</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5">
-        <v>57</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="5">
-        <v>58</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="5">
-        <v>59</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5">
-        <v>60</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="11"/>
+      <c r="A61" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
